--- a/biology/Botanique/Allium_giganteum/Allium_giganteum.xlsx
+++ b/biology/Botanique/Allium_giganteum/Allium_giganteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium giganteum, ou ail géant de l'Himalaya ou  oignon géant, est une espèce d'oignon, originaire du centre et du sud-ouest de l'Asie mais cultivée dans de nombreux pays comme plante ornementale[4],[5] C'est la plus grande espèce dAllium. En culture elle atteint 1,5 m[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium giganteum, ou ail géant de l'Himalaya ou  oignon géant, est une espèce d'oignon, originaire du centre et du sud-ouest de l'Asie mais cultivée dans de nombreux pays comme plante ornementale, C'est la plus grande espèce dAllium. En culture elle atteint 1,5 m.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans la nature en Iran, Afghanistan, Turquie, Turkmenistan, Tajikistan, and Ouzbekistan[3].
-En culture, il se comporte comme une plante  rustique [7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans la nature en Iran, Afghanistan, Turquie, Turkmenistan, Tajikistan, and Ouzbekistan.
+En culture, il se comporte comme une plante  rustique 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du début au milieu de l'été, de petits globes d'ombelles pourpres intenses apparaissent, suivis d'attrayantes ombelles fructifères. Un cultivar populaire, 'Globemaster', est plus court (80 cm) mais produit des ombelles violet foncé beaucoup plus grandes.
-Deux variétés ont reçu le Award of Garden Merit de la Royal Horticultural Society[8],[9]
+Deux variétés ont reçu le Award of Garden Merit de la Royal Horticultural Society,
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Risque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manger des fleurs, des graines, des feuilles et des tiges peut provoquer des nausées, des vomissements et de la diarrhée en raison des sulfures qu'ils contiennent[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manger des fleurs, des graines, des feuilles et des tiges peut provoquer des nausées, des vomissements et de la diarrhée en raison des sulfures qu'ils contiennent.
 			Ouverture de l'ombelle
 </t>
         </is>
